--- a/data/trans_dic/P23_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_R2-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3207181324930996</v>
+        <v>0.3215309555590246</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2594567484023504</v>
+        <v>0.2617134253358443</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2953728341561818</v>
+        <v>0.2884789334928698</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1640511028437588</v>
+        <v>0.1658665351510424</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2904254743550983</v>
+        <v>0.2927199895972868</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2880257880241134</v>
+        <v>0.2826965383520857</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2219992097153932</v>
+        <v>0.2254939619508431</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1389716173238099</v>
+        <v>0.1384647596380434</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3190966423750893</v>
+        <v>0.314154244384272</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2859953608906568</v>
+        <v>0.2852564176402453</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2724208521386178</v>
+        <v>0.2693579811175146</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1697697679792037</v>
+        <v>0.1658950083008145</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4052988992341412</v>
+        <v>0.4062538269265731</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3469418359095602</v>
+        <v>0.3470737423140205</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3873452132997553</v>
+        <v>0.3886175636986546</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2961491666069935</v>
+        <v>0.3044473485998735</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3747061564225094</v>
+        <v>0.3752814626261188</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.374201229623718</v>
+        <v>0.3792832417957549</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3103823447642989</v>
+        <v>0.3092119559997805</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2483028388009882</v>
+        <v>0.252308235044273</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.378087248673645</v>
+        <v>0.3773507847951325</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.347567469346803</v>
+        <v>0.3442562123738127</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.335995436995019</v>
+        <v>0.3361620931854837</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.258894092438462</v>
+        <v>0.2524242861765066</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.4421407045412315</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.338896956956284</v>
+        <v>0.3388969569562839</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3491800614844354</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4573982994415972</v>
+        <v>0.4560169276992018</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.396460677514253</v>
+        <v>0.4017952156562608</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4036583526821732</v>
+        <v>0.3963717938985948</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2897273467052681</v>
+        <v>0.2886833085106894</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3109787141491149</v>
+        <v>0.3127488035932679</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3630168616731818</v>
+        <v>0.3580441375811032</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3414263609217993</v>
+        <v>0.3424789266916847</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2053131794484696</v>
+        <v>0.2042312333209721</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.399937685874113</v>
+        <v>0.4030372671300465</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3935183487481863</v>
+        <v>0.3943098884042605</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3806241978676164</v>
+        <v>0.3811258774642838</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2580807060970002</v>
+        <v>0.25597663406664</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5325216214230896</v>
+        <v>0.5288790919193009</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4735618097769572</v>
+        <v>0.4813104799821817</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4915724086760918</v>
+        <v>0.482342195790694</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4011432062353909</v>
+        <v>0.4000145038106801</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3877776886630291</v>
+        <v>0.3910946091961795</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4420023482367355</v>
+        <v>0.4412013641576386</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4186444736600579</v>
+        <v>0.4189537151911246</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2863313565025418</v>
+        <v>0.2863309110506156</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4504880594212664</v>
+        <v>0.4546734335838818</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4489567682988531</v>
+        <v>0.449820970469229</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4406528996003245</v>
+        <v>0.4374601761765068</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3274311738219759</v>
+        <v>0.3268007811669552</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.3339250966880152</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2354099921867466</v>
+        <v>0.2354099921867465</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.44345698979038</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4799020247418493</v>
+        <v>0.4834978356879682</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4208090467267218</v>
+        <v>0.4198728391830142</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3601026780836334</v>
+        <v>0.3596338548248419</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2345097549892713</v>
+        <v>0.2384943185293753</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3338725084760317</v>
+        <v>0.3363885838899452</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3022471507271063</v>
+        <v>0.3065177515434477</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2976843842844498</v>
+        <v>0.3021809335445248</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2071877444429401</v>
+        <v>0.2055716726772067</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4174921183235424</v>
+        <v>0.4158771808751358</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3708113021145998</v>
+        <v>0.3718776656927884</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.339689111224555</v>
+        <v>0.3407303660691722</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2318811366263899</v>
+        <v>0.2303947134233771</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5658842100784797</v>
+        <v>0.5611938348143171</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4989284087929673</v>
+        <v>0.4979919946446308</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4363065408386834</v>
+        <v>0.439962482063779</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3091693329763906</v>
+        <v>0.3159172737185306</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4101781197407127</v>
+        <v>0.4136232749874357</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3785764366913362</v>
+        <v>0.3774135226707789</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3723796577164915</v>
+        <v>0.3713214244282616</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2655855012285732</v>
+        <v>0.2644490890069242</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.474746884804384</v>
+        <v>0.4707638593180102</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4255869884977598</v>
+        <v>0.4252998341249256</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3941022711721933</v>
+        <v>0.3908516721731097</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2793661468306937</v>
+        <v>0.277428854702842</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.4299958890964127</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2792388810864468</v>
+        <v>0.2792388810864467</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2747015393155578</v>
@@ -1093,7 +1093,7 @@
         <v>0.3567894745033369</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2371804883644381</v>
+        <v>0.2371804883644382</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.357071351153236</v>
@@ -1105,7 +1105,7 @@
         <v>0.3933668561170007</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2576820657195051</v>
+        <v>0.2576820657195052</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3943839764432986</v>
+        <v>0.3959559122854308</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4086097459540368</v>
+        <v>0.4116175505126311</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3906066803548922</v>
+        <v>0.3908393897911941</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.243354880530208</v>
+        <v>0.2433806558791516</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2368983762315335</v>
+        <v>0.2369127335788352</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3448733328811558</v>
+        <v>0.3486431400900655</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3192257650000268</v>
+        <v>0.3201017051305837</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2149637579100352</v>
+        <v>0.2131030374447671</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3275376280041619</v>
+        <v>0.3276073400984773</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3902126230591925</v>
+        <v>0.3836750467550397</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3650876948877068</v>
+        <v>0.3652085419931137</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2346290502461087</v>
+        <v>0.2370498975417364</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4840327288828117</v>
+        <v>0.4834885865010815</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4910242578474743</v>
+        <v>0.4951498202521527</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4753060125468226</v>
+        <v>0.4716628990548051</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3135577865416075</v>
+        <v>0.3159866409829198</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3134466988873996</v>
+        <v>0.3115178541178215</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4291698180195476</v>
+        <v>0.4319900146520909</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3992950695335936</v>
+        <v>0.3951312691957163</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2646379844654483</v>
+        <v>0.2648238460781923</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3863603388447059</v>
+        <v>0.3890102136305788</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4503012138060346</v>
+        <v>0.4480009528072612</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4204031089668305</v>
+        <v>0.4215612481851761</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2773491672495914</v>
+        <v>0.2789324512527424</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.3072415637655997</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3094566729138554</v>
+        <v>0.3094566729138553</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1160631369556759</v>
@@ -1229,7 +1229,7 @@
         <v>0.2301353676725043</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2206366767770417</v>
+        <v>0.2206366767770418</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2209077040923197</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2848293022207478</v>
+        <v>0.2822170976804597</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3147540427969737</v>
+        <v>0.3134477969466583</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2658408175876059</v>
+        <v>0.2609505881001148</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2740496942816641</v>
+        <v>0.2718199035329502</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08811681693704651</v>
+        <v>0.08803685436946247</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1187622033326856</v>
+        <v>0.1190609047425338</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1932650249942492</v>
+        <v>0.1932869916465923</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1940523848148698</v>
+        <v>0.1949774479669679</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1936826647112304</v>
+        <v>0.1937942132229033</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2243144931964491</v>
+        <v>0.2242670465576996</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2380681211048016</v>
+        <v>0.2367125885262868</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2399207022290941</v>
+        <v>0.2437090130271052</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3808551356316573</v>
+        <v>0.3768550312232354</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4160545230316671</v>
+        <v>0.4102134381115841</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3524269872639174</v>
+        <v>0.355844388328128</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3475876555224359</v>
+        <v>0.3462104165229354</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1534869213693251</v>
+        <v>0.1517493937909991</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1885875004664952</v>
+        <v>0.1905017442507942</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2749902618076372</v>
+        <v>0.2737190158316259</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2475055550872296</v>
+        <v>0.2477471097871684</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2528357559361036</v>
+        <v>0.2497790862651506</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2848914594632794</v>
+        <v>0.2876722216775474</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2989868450033152</v>
+        <v>0.2973887360940768</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2866920851009369</v>
+        <v>0.2891166407241158</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.174174624380989</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.1839516027387819</v>
+        <v>0.183951602738782</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.01920174482686319</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1429016649683248</v>
+        <v>0.1416762043084295</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1254665239338129</v>
+        <v>0.1244115613545905</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1354294482394501</v>
+        <v>0.1322135683388226</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1525702626678465</v>
+        <v>0.1558120087176384</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.008226978261865019</v>
+        <v>0.008220091606903174</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03239307897037795</v>
+        <v>0.03207999382133678</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0525032064539378</v>
+        <v>0.05511237481119341</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1025339481142525</v>
+        <v>0.1044291007868913</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.07177916338659864</v>
+        <v>0.07473758949398197</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.08426000334113505</v>
+        <v>0.08435661430810323</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.09977244008371768</v>
+        <v>0.1016137908973508</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1323404324390721</v>
+        <v>0.133028914193866</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2335835356786526</v>
+        <v>0.22511289404354</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.214846028158904</v>
+        <v>0.2145981409350713</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2227403578392493</v>
+        <v>0.2168187409524639</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.215987704134493</v>
+        <v>0.2199313946491199</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03921865690684395</v>
+        <v>0.03830491977775817</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.08264552504366134</v>
+        <v>0.08644471539183507</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1088906304326942</v>
+        <v>0.1097977243392328</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1493621973087177</v>
+        <v>0.1478044267509677</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1156294495272009</v>
+        <v>0.1202928718040139</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.136412383460866</v>
+        <v>0.1344549727726227</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1542455892223623</v>
+        <v>0.1546018971738073</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.172830792381512</v>
+        <v>0.1733818786680252</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.04866632667031374</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.03481173488872831</v>
+        <v>0.0348117348887283</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0701719146048185</v>
+        <v>0.06945657970637879</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07273543183162735</v>
+        <v>0.07315387930884001</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06594963752986752</v>
+        <v>0.0656425224494689</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0446016504959353</v>
+        <v>0.04402963576807824</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.003344801964975238</v>
+        <v>0.003380638869394978</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.002587251847225311</v>
+        <v>0.002587159501108674</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.006981452614287753</v>
+        <v>0.006829916129236302</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.007709211495819154</v>
+        <v>0.007789770371150108</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03304393690889092</v>
+        <v>0.03445992500413456</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.03195474004908806</v>
+        <v>0.03216190997665301</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.03465452570236315</v>
+        <v>0.03426394347708335</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02477743747641364</v>
+        <v>0.02488038986913312</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1541707410909642</v>
+        <v>0.1522583039857056</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1583558018006143</v>
+        <v>0.154519201359458</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1355170315306122</v>
+        <v>0.130457476627504</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09377036686177577</v>
+        <v>0.09172666776636187</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03538406402978991</v>
+        <v>0.03357507293198449</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03006945884964777</v>
+        <v>0.03060794035435366</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04107199059110073</v>
+        <v>0.04301202270955962</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.02408922360006007</v>
+        <v>0.02480910100344886</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.07171963361184149</v>
+        <v>0.07302788837209397</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.07025213275813293</v>
+        <v>0.07121986872580646</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.06695502021370836</v>
+        <v>0.06871491059836694</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.04636000750505442</v>
+        <v>0.04605380271803999</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.380969642021169</v>
+        <v>0.3824223081344389</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3517604048391249</v>
+        <v>0.3523748024990001</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3298913901695234</v>
+        <v>0.3290120175879894</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2382641432519156</v>
+        <v>0.2394022922885192</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2306090796420667</v>
+        <v>0.2303695009626821</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2545320334610676</v>
+        <v>0.2537503818183868</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2456685304786344</v>
+        <v>0.2451734870609874</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1777417211281965</v>
+        <v>0.178519485723527</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3098232429060634</v>
+        <v>0.3106293652586773</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.3067147429424985</v>
+        <v>0.3070758325793712</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2908360125738308</v>
+        <v>0.292048827185374</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2118000868114483</v>
+        <v>0.2118551120516892</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4170760450911604</v>
+        <v>0.4152264714443021</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3865999470064571</v>
+        <v>0.3860519241670833</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3631035297314275</v>
+        <v>0.3628549158123226</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2718623964469848</v>
+        <v>0.2719471848166741</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2609835619689522</v>
+        <v>0.2613209926347024</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2865613260194423</v>
+        <v>0.2845751344166443</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2757115418303183</v>
+        <v>0.2770235842803463</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2004202949547753</v>
+        <v>0.2026964780136919</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3341027434465323</v>
+        <v>0.3324219212670809</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3307246937603189</v>
+        <v>0.3303537794642027</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3140923339294397</v>
+        <v>0.3148988635813798</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2318568348086373</v>
+        <v>0.2320091775632078</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>158121</v>
+        <v>158522</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>117831</v>
+        <v>118856</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>123898</v>
+        <v>121006</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>66899</v>
+        <v>67639</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>135771</v>
+        <v>136843</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>123630</v>
+        <v>121343</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>87857</v>
+        <v>89240</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>50036</v>
+        <v>49854</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>306496</v>
+        <v>301749</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>252643</v>
+        <v>251990</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>222082</v>
+        <v>219585</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>130356</v>
+        <v>127381</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>199821</v>
+        <v>200292</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>157562</v>
+        <v>157622</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>162477</v>
+        <v>163011</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>120768</v>
+        <v>124151</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>175171</v>
+        <v>175440</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>160620</v>
+        <v>162801</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>122835</v>
+        <v>122372</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>89401</v>
+        <v>90843</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>363157</v>
+        <v>362450</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>307034</v>
+        <v>304109</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>273910</v>
+        <v>274045</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>198790</v>
+        <v>193822</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>336411</v>
+        <v>335395</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>272403</v>
+        <v>276068</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>238359</v>
+        <v>234056</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>138168</v>
+        <v>137670</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>194515</v>
+        <v>195623</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>221533</v>
+        <v>218498</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>192409</v>
+        <v>193002</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>102879</v>
+        <v>102337</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>544308</v>
+        <v>548526</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>510528</v>
+        <v>511555</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>439256</v>
+        <v>439835</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>252396</v>
+        <v>250338</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>391664</v>
+        <v>388985</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>325378</v>
+        <v>330702</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>290272</v>
+        <v>284821</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>191301</v>
+        <v>190763</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>242553</v>
+        <v>244627</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>269734</v>
+        <v>269245</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>235925</v>
+        <v>236099</v>
       </c>
       <c r="J11" s="6" t="n">
         <v>143476</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>613106</v>
+        <v>618802</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>582450</v>
+        <v>583572</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>508531</v>
+        <v>504847</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>320219</v>
+        <v>319602</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>306498</v>
+        <v>308795</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>286501</v>
+        <v>285863</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>240558</v>
+        <v>240244</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>145316</v>
+        <v>147785</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>230287</v>
+        <v>232022</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>214554</v>
+        <v>217586</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>196608</v>
+        <v>199578</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>128900</v>
+        <v>127894</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>554602</v>
+        <v>552456</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>515686</v>
+        <v>517169</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>451271</v>
+        <v>452654</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>287950</v>
+        <v>286104</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>361412</v>
+        <v>358417</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>339687</v>
+        <v>339049</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>291464</v>
+        <v>293906</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>191580</v>
+        <v>195761</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>282918</v>
+        <v>285294</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>268738</v>
+        <v>267912</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>245941</v>
+        <v>245243</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>165231</v>
+        <v>164524</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>630659</v>
+        <v>625368</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>591863</v>
+        <v>591463</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>523558</v>
+        <v>519240</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>346916</v>
+        <v>344511</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>204743</v>
+        <v>205559</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>251138</v>
+        <v>252987</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>252351</v>
+        <v>252501</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>170221</v>
+        <v>170239</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>122155</v>
+        <v>122162</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>212511</v>
+        <v>214834</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>206527</v>
+        <v>207093</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>158101</v>
+        <v>156733</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>338932</v>
+        <v>339004</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>480280</v>
+        <v>472233</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>472062</v>
+        <v>472218</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>336682</v>
+        <v>340156</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>251284</v>
+        <v>251002</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>301792</v>
+        <v>304327</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>307070</v>
+        <v>304717</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>219326</v>
+        <v>221025</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>161626</v>
+        <v>160632</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>264454</v>
+        <v>266192</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>258328</v>
+        <v>255635</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>194635</v>
+        <v>194772</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>399801</v>
+        <v>402543</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>554238</v>
+        <v>551407</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>543585</v>
+        <v>545082</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>397983</v>
+        <v>400255</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>110146</v>
+        <v>109136</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>135165</v>
+        <v>134604</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>127050</v>
+        <v>124713</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>166695</v>
+        <v>165339</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>35598</v>
+        <v>35566</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>53182</v>
+        <v>53315</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>95809</v>
+        <v>95820</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>118150</v>
+        <v>118713</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>153144</v>
+        <v>153232</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>196775</v>
+        <v>196734</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>231797</v>
+        <v>230477</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>292012</v>
+        <v>296623</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>147280</v>
+        <v>145734</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>178666</v>
+        <v>176158</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>168431</v>
+        <v>170064</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>211425</v>
+        <v>210588</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>62007</v>
+        <v>61305</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>84449</v>
+        <v>85307</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>136324</v>
+        <v>135693</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>150695</v>
+        <v>150842</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>199916</v>
+        <v>197499</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>249915</v>
+        <v>252354</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>291111</v>
+        <v>289555</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>348939</v>
+        <v>351890</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>41811</v>
+        <v>41452</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>38868</v>
+        <v>38541</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>45278</v>
+        <v>44203</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>62108</v>
+        <v>63428</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>11467</v>
+        <v>11356</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>19834</v>
+        <v>20819</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>45029</v>
+        <v>45862</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>45617</v>
+        <v>47497</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>55930</v>
+        <v>55994</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>71047</v>
+        <v>72358</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>111993</v>
+        <v>112575</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>68343</v>
+        <v>65864</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>66556</v>
+        <v>66479</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>74469</v>
+        <v>72489</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>87924</v>
+        <v>89530</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>13449</v>
+        <v>13136</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>29256</v>
+        <v>30601</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>41135</v>
+        <v>41477</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>65595</v>
+        <v>64911</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>73484</v>
+        <v>76448</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>90548</v>
+        <v>89249</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>109837</v>
+        <v>110091</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>146257</v>
+        <v>146724</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>14728</v>
+        <v>14578</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>18173</v>
+        <v>18278</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>16892</v>
+        <v>16813</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>13835</v>
+        <v>13658</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1117</v>
+        <v>1129</v>
       </c>
       <c r="H30" s="6" t="n">
         <v>1006</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2785</v>
+        <v>2724</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>3582</v>
+        <v>3619</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>17969</v>
+        <v>18739</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>20414</v>
+        <v>20546</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>22699</v>
+        <v>22443</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>19198</v>
+        <v>19278</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>32358</v>
+        <v>31956</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>39565</v>
+        <v>38607</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>34710</v>
+        <v>33414</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>29087</v>
+        <v>28453</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>11815</v>
+        <v>11211</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>11696</v>
+        <v>11906</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>16383</v>
+        <v>17157</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>11192</v>
+        <v>11527</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>39000</v>
+        <v>39712</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>44879</v>
+        <v>45497</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>43857</v>
+        <v>45009</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>35920</v>
+        <v>35683</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1247866</v>
+        <v>1252625</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1205043</v>
+        <v>1207148</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1119128</v>
+        <v>1116145</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>840920</v>
+        <v>844937</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>779274</v>
+        <v>778464</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>905199</v>
+        <v>902419</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>869446</v>
+        <v>867694</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>663222</v>
+        <v>666124</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>2061780</v>
+        <v>2067145</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>2141506</v>
+        <v>2144027</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>2015935</v>
+        <v>2024341</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1537825</v>
+        <v>1538225</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1366133</v>
+        <v>1360075</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1324394</v>
+        <v>1322517</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1231797</v>
+        <v>1230954</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>959501</v>
+        <v>959800</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>881915</v>
+        <v>883055</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1019106</v>
+        <v>1012042</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>975772</v>
+        <v>980415</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>747844</v>
+        <v>756338</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>2223353</v>
+        <v>2212167</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>2309145</v>
+        <v>2306555</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>2177136</v>
+        <v>2182727</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1683452</v>
+        <v>1684558</v>
       </c>
     </row>
     <row r="36">
